--- a/examples/file2.xlsx
+++ b/examples/file2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Имя</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>Серия и номер паспорта</t>
-  </si>
-  <si>
     <t>Пол</t>
   </si>
   <si>
@@ -51,15 +48,6 @@
     <t>Код подразделения</t>
   </si>
   <si>
-    <t>Ева</t>
-  </si>
-  <si>
-    <t>Сарафанова</t>
-  </si>
-  <si>
-    <t>Татьяновна</t>
-  </si>
-  <si>
     <t>женский</t>
   </si>
   <si>
@@ -79,6 +67,39 @@
   </si>
   <si>
     <t>мужской</t>
+  </si>
+  <si>
+    <t>Серия паспорта</t>
+  </si>
+  <si>
+    <t>Номер паспорта</t>
+  </si>
+  <si>
+    <t>Петрова</t>
+  </si>
+  <si>
+    <t>г. Санкт-петербург</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Лужникова</t>
+  </si>
+  <si>
+    <t>Анатольевна</t>
+  </si>
+  <si>
+    <t>Антонина</t>
+  </si>
+  <si>
+    <t>Авганьева</t>
+  </si>
+  <si>
+    <t>789-321</t>
+  </si>
+  <si>
+    <t>250-987</t>
   </si>
 </sst>
 </file>
@@ -398,26 +419,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,86 +454,130 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>34604</v>
+      </c>
+      <c r="E2">
+        <v>8956</v>
+      </c>
+      <c r="F2">
+        <v>125877</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>37773</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35388</v>
+      </c>
+      <c r="E3">
+        <v>3268</v>
+      </c>
+      <c r="F3">
+        <v>986695</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" s="2">
+        <v>37773</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
-        <v>32743</v>
-      </c>
-      <c r="E3">
-        <v>7984365214</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
-        <v>35802</v>
-      </c>
-      <c r="J3">
-        <v>250987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>31904</v>
       </c>
       <c r="E5">
-        <v>4568456789</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>9856</v>
+      </c>
+      <c r="F5">
+        <v>122542</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
         <v>35802</v>
       </c>
-      <c r="J5">
-        <v>250987</v>
+      <c r="K5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
